--- a/test result/ePyresult.xlsx
+++ b/test result/ePyresult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TaoTheAdmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TaoTheAdmin\Documents\GitHub\ePy_Bench\test result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.0000"/>
+    <numFmt numFmtId="187" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -68,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +236,12 @@
                 <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -282,13 +288,18 @@
                 <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2043</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -297,11 +308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1328211424"/>
-        <c:axId val="1328215776"/>
+        <c:axId val="-674377376"/>
+        <c:axId val="-674376832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1328211424"/>
+        <c:axId val="-674377376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +427,7 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328215776"/>
+        <c:crossAx val="-674376832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,7 +435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1328215776"/>
+        <c:axId val="-674376832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +555,7 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328211424"/>
+        <c:crossAx val="-674377376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1192,13 +1203,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1483,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1530,7 @@
         <v>0.2</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C13" si="0">A3/B3</f>
+        <f t="shared" ref="C3:C15" si="0">A3/B3</f>
         <v>2500</v>
       </c>
     </row>
@@ -1641,6 +1652,30 @@
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20000</v>
+      </c>
+      <c r="B14">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>129.87012987012986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>50000</v>
+      </c>
+      <c r="B15">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>24.473813020068526</v>
       </c>
     </row>
   </sheetData>
